--- a/3rd_experiment/EE.experiment/m20060/experoment/ex31.xlsx
+++ b/3rd_experiment/EE.experiment/m20060/experoment/ex31.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sugiyamakouta/Desktop/experoment/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sugiyamakouta/Desktop/workDir/3rd_experiment/EE.experiment/m20060/experoment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B4EAF8-C29E-984A-ADF9-C5CB5A8B7F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C454FE-9638-A34D-ABC6-FA589D0C6E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16240" activeTab="4" xr2:uid="{203505AC-688F-4134-ABA5-BEA62DECB882}"/>
   </bookViews>
@@ -24,12 +24,114 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>電圧</t>
+    <rPh sb="0" eb="2">
+      <t>デンアテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電流</t>
+    <rPh sb="0" eb="2">
+      <t>デンリュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>抵抗</t>
+    <rPh sb="0" eb="2">
+      <t>テイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電圧2</t>
+    <rPh sb="0" eb="3">
+      <t>デンアテゥ2</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電流3</t>
+    <rPh sb="0" eb="3">
+      <t>デンリュウ3</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>抵抗4</t>
+    <rPh sb="0" eb="3">
+      <t>テイコウ4</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電圧5</t>
+    <rPh sb="0" eb="3">
+      <t>デンアテゥ5</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電流6</t>
+    <rPh sb="0" eb="3">
+      <t>デンリュウ6</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>抵抗7</t>
+    <rPh sb="0" eb="3">
+      <t>テイコウ7</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電圧8</t>
+    <rPh sb="0" eb="3">
+      <t>デンアテゥ8</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電流9</t>
+    <rPh sb="0" eb="3">
+      <t>デンリュウ9</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>抵抗10</t>
+    <rPh sb="0" eb="4">
+      <t>テイコウ10</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="184" formatCode="#,##0.0000000"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -69,18 +171,77 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <numFmt numFmtId="184" formatCode="#,##0.0000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="184" formatCode="#,##0.0000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="184" formatCode="#,##0.0000000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="184" formatCode="#,##0.0000000"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -5622,6 +5783,39 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0785C1B4-BAE4-FC4A-9E28-4DB1D518BEA0}" name="テーブル1" displayName="テーブル1" ref="A1:L23" totalsRowCount="1">
+  <autoFilter ref="A1:L22" xr:uid="{0785C1B4-BAE4-FC4A-9E28-4DB1D518BEA0}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{4AD687BE-3A08-1542-996D-7C523D42CE5E}" name="電圧"/>
+    <tableColumn id="2" xr3:uid="{1FE0F336-C8D1-A14E-9849-604E81D8B1F6}" name="電流"/>
+    <tableColumn id="3" xr3:uid="{CBC573B1-E576-9344-A0B3-068C7F1B73BC}" name="抵抗" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="10">
+      <calculatedColumnFormula>テーブル1[[#This Row],[電流]]/テーブル1[[#This Row],[電圧]]</calculatedColumnFormula>
+      <totalsRowFormula>AVERAGE(C3:C22)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{57C7D86C-DF46-C442-9988-5707CCE3CBD5}" name="電圧2" totalsRowDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{34FA12FE-8ADF-0946-B942-29C0DB2887E0}" name="電流3" totalsRowDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{ACC9F1F4-84CD-AE4C-9FED-30F3C6D13BD0}" name="抵抗4" totalsRowFunction="custom" dataDxfId="12" totalsRowDxfId="7">
+      <calculatedColumnFormula>テーブル1[[#This Row],[電流3]]/テーブル1[[#This Row],[電圧2]]</calculatedColumnFormula>
+      <totalsRowFormula>AVERAGE(F3:F22)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{E356BC43-27D4-064E-9EE9-0011CC1D9B90}" name="電圧5" totalsRowDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{3DDDC2C2-C0D3-2642-9918-0CA2D966C760}" name="電流6" totalsRowDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{165647DF-3D06-5344-ABE8-54D9FFC6FD87}" name="抵抗7" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="4">
+      <calculatedColumnFormula>テーブル1[[#This Row],[電流6]]/テーブル1[[#This Row],[電圧5]]</calculatedColumnFormula>
+      <totalsRowFormula>AVERAGE(I3:I22)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{69718FD4-5D70-7640-928C-DBDC3CE7F306}" name="電圧8" totalsRowDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{DF614C42-892E-3242-986D-76BFF17D9D38}" name="電流9" dataDxfId="14" totalsRowDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{92D3559C-BED3-0E49-9E06-CC21F7550534}" name="抵抗10" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
+      <calculatedColumnFormula>テーブル1[[#This Row],[電流9]]/テーブル1[[#This Row],[電圧8]]</calculatedColumnFormula>
+      <totalsRowFormula>AVERAGE(L3:L22)</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -7671,563 +7865,968 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC45E67-8CFE-6347-997B-A0CB5BF75770}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <cols>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1">
+    <row r="1" spans="1:12">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2">
         <v>7.3239999999999998E-3</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>0</v>
       </c>
-      <c r="C1">
+      <c r="C2">
+        <f>テーブル1[[#This Row],[電流]]/テーブル1[[#This Row],[電圧]]</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>7.3239999999999998E-3</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E2" s="1">
         <v>0</v>
       </c>
-      <c r="E1">
-        <v>7.3239999999999998E-3</v>
-      </c>
-      <c r="F1">
+      <c r="F2" s="1">
+        <f>テーブル1[[#This Row],[電流3]]/テーブル1[[#This Row],[電圧2]]</f>
         <v>0</v>
-      </c>
-      <c r="G1">
-        <v>7.3239999999999998E-3</v>
-      </c>
-      <c r="H1" s="1">
-        <v>1.2207029999999999E-8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2">
-        <v>0.223389</v>
-      </c>
-      <c r="B2">
-        <v>2.4399999999999999E-4</v>
-      </c>
-      <c r="C2">
-        <v>0.123291</v>
-      </c>
-      <c r="D2">
-        <v>1.26E-4</v>
-      </c>
-      <c r="E2">
-        <v>2.1972999999999999E-2</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2.2705079999999999E-5</v>
       </c>
       <c r="G2">
         <v>7.3239999999999998E-3</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>テーブル1[[#This Row],[電流6]]/テーブル1[[#This Row],[電圧5]]</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1.2207029999999999E-8</v>
+      </c>
+      <c r="L2" s="1">
+        <f>テーブル1[[#This Row],[電流9]]/テーブル1[[#This Row],[電圧8]]</f>
+        <v>1.6667162752594211E-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3">
+        <v>0.223389</v>
+      </c>
+      <c r="B3">
+        <v>2.4399999999999999E-4</v>
+      </c>
+      <c r="C3">
+        <f>テーブル1[[#This Row],[電流]]/テーブル1[[#This Row],[電圧]]</f>
+        <v>1.0922650622904439E-3</v>
+      </c>
+      <c r="D3">
+        <v>0.123291</v>
+      </c>
+      <c r="E3">
+        <v>1.26E-4</v>
+      </c>
+      <c r="F3" s="1">
+        <f>テーブル1[[#This Row],[電流3]]/テーブル1[[#This Row],[電圧2]]</f>
+        <v>1.021972406745018E-3</v>
+      </c>
+      <c r="G3">
+        <v>2.1972999999999999E-2</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2.2705079999999999E-5</v>
+      </c>
+      <c r="I3" s="2">
+        <f>テーブル1[[#This Row],[電流6]]/テーブル1[[#This Row],[電圧5]]</f>
+        <v>1.0333172529923087E-3</v>
+      </c>
+      <c r="J3">
+        <v>7.3239999999999998E-3</v>
+      </c>
+      <c r="K3" s="1">
         <v>2.404785E-6</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3">
+      <c r="L3" s="1">
+        <f>テーブル1[[#This Row],[電流9]]/テーブル1[[#This Row],[電圧8]]</f>
+        <v>3.2834311851447296E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4">
         <v>0.45043899999999998</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>4.64E-4</v>
       </c>
-      <c r="C3">
+      <c r="C4">
+        <f>テーブル1[[#This Row],[電流]]/テーブル1[[#This Row],[電圧]]</f>
+        <v>1.0301061852992304E-3</v>
+      </c>
+      <c r="D4">
         <v>0.24902299999999999</v>
       </c>
-      <c r="D3">
+      <c r="E4">
         <v>2.4699999999999999E-4</v>
       </c>
-      <c r="E3">
+      <c r="F4" s="1">
+        <f>テーブル1[[#This Row],[電流3]]/テーブル1[[#This Row],[電圧2]]</f>
+        <v>9.9187625239435719E-4</v>
+      </c>
+      <c r="G4">
         <v>4.5165999999999998E-2</v>
       </c>
-      <c r="F3" s="1">
+      <c r="H4" s="1">
         <v>4.5288080000000003E-5</v>
       </c>
-      <c r="G3">
+      <c r="I4" s="2">
+        <f>テーブル1[[#This Row],[電流6]]/テーブル1[[#This Row],[電圧5]]</f>
+        <v>1.0027029181242529E-3</v>
+      </c>
+      <c r="J4">
         <v>7.3239999999999998E-3</v>
       </c>
-      <c r="H3" s="1">
+      <c r="K4" s="1">
         <v>4.895019E-6</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4">
+      <c r="L4" s="1">
+        <f>テーブル1[[#This Row],[電流9]]/テーブル1[[#This Row],[電圧8]]</f>
+        <v>6.6835322228290552E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5">
         <v>0.67626900000000001</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>6.96E-4</v>
       </c>
-      <c r="C4">
+      <c r="C5">
+        <f>テーブル1[[#This Row],[電流]]/テーブル1[[#This Row],[電圧]]</f>
+        <v>1.0291762597427947E-3</v>
+      </c>
+      <c r="D5">
         <v>0.37231399999999998</v>
       </c>
-      <c r="D4">
+      <c r="E5">
         <v>3.7500000000000001E-4</v>
       </c>
-      <c r="E4">
+      <c r="F5" s="1">
+        <f>テーブル1[[#This Row],[電流3]]/テーブル1[[#This Row],[電圧2]]</f>
+        <v>1.0072143405834861E-3</v>
+      </c>
+      <c r="G5">
         <v>6.7139000000000004E-2</v>
       </c>
-      <c r="F4" s="1">
+      <c r="H5" s="1">
         <v>6.7749020000000006E-5</v>
       </c>
-      <c r="G4">
+      <c r="I5" s="2">
+        <f>テーブル1[[#This Row],[電流6]]/テーブル1[[#This Row],[電圧5]]</f>
+        <v>1.0090859262127825E-3</v>
+      </c>
+      <c r="J5">
         <v>8.5450000000000005E-3</v>
       </c>
-      <c r="H4" s="1">
+      <c r="K5" s="1">
         <v>7.3486320000000003E-6</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5">
+      <c r="L5" s="1">
+        <f>テーブル1[[#This Row],[電流9]]/テーブル1[[#This Row],[電圧8]]</f>
+        <v>8.5999204212990055E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6">
         <v>0.90454100000000004</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>9.0300000000000005E-4</v>
       </c>
-      <c r="C5">
+      <c r="C6">
+        <f>テーブル1[[#This Row],[電流]]/テーブル1[[#This Row],[電圧]]</f>
+        <v>9.9829637351982951E-4</v>
+      </c>
+      <c r="D6">
         <v>0.49926799999999999</v>
       </c>
-      <c r="D5">
+      <c r="E6">
         <v>4.9600000000000002E-4</v>
       </c>
-      <c r="E5">
+      <c r="F6" s="1">
+        <f>テーブル1[[#This Row],[電流3]]/テーブル1[[#This Row],[電圧2]]</f>
+        <v>9.9345441726687877E-4</v>
+      </c>
+      <c r="G6">
         <v>9.0331999999999996E-2</v>
       </c>
-      <c r="F5" s="1">
+      <c r="H6" s="1">
         <v>9.0698229999999994E-5</v>
       </c>
-      <c r="G5">
+      <c r="I6" s="2">
+        <f>テーブル1[[#This Row],[電流6]]/テーブル1[[#This Row],[電圧5]]</f>
+        <v>1.0040542664836382E-3</v>
+      </c>
+      <c r="J6">
         <v>1.0985999999999999E-2</v>
       </c>
-      <c r="H5" s="1">
+      <c r="K6" s="1">
         <v>9.8510730000000007E-6</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
+      <c r="L6" s="1">
+        <f>テーブル1[[#This Row],[電流9]]/テーブル1[[#This Row],[電圧8]]</f>
+        <v>8.9669333697433109E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7">
         <v>1.1328119999999999</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>1.111E-3</v>
       </c>
-      <c r="C6">
+      <c r="C7">
+        <f>テーブル1[[#This Row],[電流]]/テーブル1[[#This Row],[電圧]]</f>
+        <v>9.8074526046687364E-4</v>
+      </c>
+      <c r="D7">
         <v>0.62255899999999997</v>
       </c>
-      <c r="D6">
+      <c r="E7">
         <v>6.2399999999999999E-4</v>
       </c>
-      <c r="E6">
+      <c r="F7" s="1">
+        <f>テーブル1[[#This Row],[電流3]]/テーブル1[[#This Row],[電圧2]]</f>
+        <v>1.0023146400582113E-3</v>
+      </c>
+      <c r="G7">
         <v>0.112305</v>
       </c>
-      <c r="F6">
+      <c r="H7">
         <v>1.13E-4</v>
       </c>
-      <c r="G6">
+      <c r="I7">
+        <f>テーブル1[[#This Row],[電流6]]/テーブル1[[#This Row],[電圧5]]</f>
+        <v>1.0061885045189439E-3</v>
+      </c>
+      <c r="J7">
         <v>1.3428000000000001E-2</v>
       </c>
-      <c r="H6" s="1">
+      <c r="K7" s="1">
         <v>1.23291E-5</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7">
+      <c r="L7" s="1">
+        <f>テーブル1[[#This Row],[電流9]]/テーブル1[[#This Row],[電圧8]]</f>
+        <v>9.1816353887399463E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8">
         <v>1.3586419999999999</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>1.343E-3</v>
       </c>
-      <c r="C7">
+      <c r="C8">
+        <f>テーブル1[[#This Row],[電流]]/テーブル1[[#This Row],[電圧]]</f>
+        <v>9.8848703337597399E-4</v>
+      </c>
+      <c r="D8">
         <v>0.74829100000000004</v>
       </c>
-      <c r="D7">
+      <c r="E8">
         <v>7.4600000000000003E-4</v>
       </c>
-      <c r="E7">
+      <c r="F8" s="1">
+        <f>テーブル1[[#This Row],[電流3]]/テーブル1[[#This Row],[電圧2]]</f>
+        <v>9.9693835686918584E-4</v>
+      </c>
+      <c r="G8">
         <v>0.13549800000000001</v>
       </c>
-      <c r="F7">
+      <c r="H8">
         <v>1.36E-4</v>
       </c>
-      <c r="G7">
+      <c r="I8">
+        <f>テーブル1[[#This Row],[電流6]]/テーブル1[[#This Row],[電圧5]]</f>
+        <v>1.0037048517321288E-3</v>
+      </c>
+      <c r="J8">
         <v>1.4648E-2</v>
       </c>
-      <c r="H7" s="1">
+      <c r="K8" s="1">
         <v>1.483154E-5</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8">
+      <c r="L8" s="1">
+        <f>テーブル1[[#This Row],[電流9]]/テーブル1[[#This Row],[電圧8]]</f>
+        <v>1.0125300382304752E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9">
         <v>1.585693</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>1.5870000000000001E-3</v>
       </c>
-      <c r="C8">
+      <c r="C9">
+        <f>テーブル1[[#This Row],[電流]]/テーブル1[[#This Row],[電圧]]</f>
+        <v>1.0008242452984278E-3</v>
+      </c>
+      <c r="D9">
         <v>0.872803</v>
       </c>
-      <c r="D8">
+      <c r="E9">
         <v>8.7200000000000005E-4</v>
       </c>
-      <c r="E8">
+      <c r="F9" s="1">
+        <f>テーブル1[[#This Row],[電流3]]/テーブル1[[#This Row],[電圧2]]</f>
+        <v>9.9907997566461176E-4</v>
+      </c>
+      <c r="G9">
         <v>0.157471</v>
       </c>
-      <c r="F8">
+      <c r="H9">
         <v>1.5899999999999999E-4</v>
       </c>
-      <c r="G8">
+      <c r="I9">
+        <f>テーブル1[[#This Row],[電流6]]/テーブル1[[#This Row],[電圧5]]</f>
+        <v>1.009709724330194E-3</v>
+      </c>
+      <c r="J9">
         <v>1.8311000000000001E-2</v>
       </c>
-      <c r="H8" s="1">
+      <c r="K9" s="1">
         <v>1.7297359999999999E-5</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9">
+      <c r="L9" s="1">
+        <f>テーブル1[[#This Row],[電流9]]/テーブル1[[#This Row],[電圧8]]</f>
+        <v>9.4464311069848716E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10">
         <v>1.811523</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>1.8190000000000001E-3</v>
       </c>
-      <c r="C9">
+      <c r="C10">
+        <f>テーブル1[[#This Row],[電流]]/テーブル1[[#This Row],[電圧]]</f>
+        <v>1.0041274662259327E-3</v>
+      </c>
+      <c r="D10">
         <v>0.99731400000000003</v>
       </c>
-      <c r="D9">
+      <c r="E10">
         <v>9.9700000000000006E-4</v>
       </c>
-      <c r="E9">
+      <c r="F10" s="1">
+        <f>テーブル1[[#This Row],[電流3]]/テーブル1[[#This Row],[電圧2]]</f>
+        <v>9.9968515432451556E-4</v>
+      </c>
+      <c r="G10">
         <v>0.18066399999999999</v>
       </c>
-      <c r="F9">
+      <c r="H10">
         <v>1.8200000000000001E-4</v>
       </c>
-      <c r="G9">
+      <c r="I10">
+        <f>テーブル1[[#This Row],[電流6]]/テーブル1[[#This Row],[電圧5]]</f>
+        <v>1.0073949430987911E-3</v>
+      </c>
+      <c r="J10">
         <v>2.0752E-2</v>
       </c>
-      <c r="H9" s="1">
+      <c r="K10" s="1">
         <v>1.9750969999999999E-5</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10">
+      <c r="L10" s="1">
+        <f>テーブル1[[#This Row],[電流9]]/テーブル1[[#This Row],[電圧8]]</f>
+        <v>9.5176223978411714E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11">
         <v>2.0385740000000001</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>2.0509999999999999E-3</v>
       </c>
-      <c r="C10">
+      <c r="C11">
+        <f>テーブル1[[#This Row],[電流]]/テーブル1[[#This Row],[電圧]]</f>
+        <v>1.0060954373007798E-3</v>
+      </c>
+      <c r="D11">
         <v>1.1230469999999999</v>
       </c>
-      <c r="D10">
+      <c r="E11">
         <v>1.121E-3</v>
       </c>
-      <c r="E10">
+      <c r="F11" s="1">
+        <f>テーブル1[[#This Row],[電流3]]/テーブル1[[#This Row],[電圧2]]</f>
+        <v>9.9817728020287679E-4</v>
+      </c>
+      <c r="G11">
         <v>0.20263700000000001</v>
       </c>
-      <c r="F10">
+      <c r="H11">
         <v>2.04E-4</v>
       </c>
-      <c r="G10">
+      <c r="I11">
+        <f>テーブル1[[#This Row],[電流6]]/テーブル1[[#This Row],[電圧5]]</f>
+        <v>1.0067263135557672E-3</v>
+      </c>
+      <c r="J11">
         <v>2.1972999999999999E-2</v>
       </c>
-      <c r="H10" s="1">
+      <c r="K11" s="1">
         <v>2.224121E-5</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11">
+      <c r="L11" s="1">
+        <f>テーブル1[[#This Row],[電流9]]/テーブル1[[#This Row],[電圧8]]</f>
+        <v>1.0122063441496383E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12">
         <v>2.265625</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>2.271E-3</v>
       </c>
-      <c r="C11">
+      <c r="C12">
+        <f>テーブル1[[#This Row],[電流]]/テーブル1[[#This Row],[電圧]]</f>
+        <v>1.0023724137931034E-3</v>
+      </c>
+      <c r="D12">
         <v>1.2475579999999999</v>
       </c>
-      <c r="D11">
+      <c r="E12">
         <v>1.2459999999999999E-3</v>
       </c>
-      <c r="E11">
+      <c r="F12" s="1">
+        <f>テーブル1[[#This Row],[電流3]]/テーブル1[[#This Row],[電圧2]]</f>
+        <v>9.9875116026669703E-4</v>
+      </c>
+      <c r="G12">
         <v>0.22583</v>
       </c>
-      <c r="F11">
+      <c r="H12">
         <v>2.2699999999999999E-4</v>
       </c>
-      <c r="G11">
+      <c r="I12">
+        <f>テーブル1[[#This Row],[電流6]]/テーブル1[[#This Row],[電圧5]]</f>
+        <v>1.0051808882787937E-3</v>
+      </c>
+      <c r="J12">
         <v>2.5635000000000002E-2</v>
       </c>
-      <c r="H11" s="1">
+      <c r="K12" s="1">
         <v>2.4719240000000002E-5</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12">
+      <c r="L12" s="1">
+        <f>テーブル1[[#This Row],[電流9]]/テーブル1[[#This Row],[電圧8]]</f>
+        <v>9.6427696508679544E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13">
         <v>2.4938959999999999</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>2.49E-3</v>
       </c>
-      <c r="C12">
+      <c r="C13">
+        <f>テーブル1[[#This Row],[電流]]/テーブル1[[#This Row],[電圧]]</f>
+        <v>9.9843778569755912E-4</v>
+      </c>
+      <c r="D13">
         <v>1.3720699999999999</v>
       </c>
-      <c r="D12">
+      <c r="E13">
         <v>1.3730000000000001E-3</v>
       </c>
-      <c r="E12">
+      <c r="F13" s="1">
+        <f>テーブル1[[#This Row],[電流3]]/テーブル1[[#This Row],[電圧2]]</f>
+        <v>1.0006778079835578E-3</v>
+      </c>
+      <c r="G13">
         <v>0.247803</v>
       </c>
-      <c r="F12">
+      <c r="H13">
         <v>2.5000000000000001E-4</v>
       </c>
-      <c r="G12">
+      <c r="I13">
+        <f>テーブル1[[#This Row],[電流6]]/テーブル1[[#This Row],[電圧5]]</f>
+        <v>1.0088659136491488E-3</v>
+      </c>
+      <c r="J13">
         <v>2.6855E-2</v>
       </c>
-      <c r="H12" s="1">
+      <c r="K13" s="1">
         <v>2.7221679999999999E-5</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13">
+      <c r="L13" s="1">
+        <f>テーブル1[[#This Row],[電流9]]/テーブル1[[#This Row],[電圧8]]</f>
+        <v>1.0136540681437349E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14">
         <v>2.7197260000000001</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>2.7339999999999999E-3</v>
       </c>
-      <c r="C13">
+      <c r="C14">
+        <f>テーブル1[[#This Row],[電流]]/テーブル1[[#This Row],[電圧]]</f>
+        <v>1.0052483228089888E-3</v>
+      </c>
+      <c r="D14">
         <v>1.497803</v>
       </c>
-      <c r="D13">
+      <c r="E14">
         <v>1.4970000000000001E-3</v>
       </c>
-      <c r="E13">
+      <c r="F14" s="1">
+        <f>テーブル1[[#This Row],[電流3]]/テーブル1[[#This Row],[電圧2]]</f>
+        <v>9.994638814316704E-4</v>
+      </c>
+      <c r="G14">
         <v>0.27099600000000001</v>
       </c>
-      <c r="F13">
+      <c r="H14">
         <v>2.7300000000000002E-4</v>
       </c>
-      <c r="G13">
+      <c r="I14">
+        <f>テーブル1[[#This Row],[電流6]]/テーブル1[[#This Row],[電圧5]]</f>
+        <v>1.0073949430987911E-3</v>
+      </c>
+      <c r="J14">
         <v>3.0518E-2</v>
       </c>
-      <c r="H13" s="1">
+      <c r="K14" s="1">
         <v>2.967529E-5</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14">
+      <c r="L14" s="1">
+        <f>テーブル1[[#This Row],[電流9]]/テーブル1[[#This Row],[電圧8]]</f>
+        <v>9.7238646044957072E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15">
         <v>2.946777</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>2.954E-3</v>
       </c>
-      <c r="C14">
+      <c r="C15">
+        <f>テーブル1[[#This Row],[電流]]/テーブル1[[#This Row],[電圧]]</f>
+        <v>1.00245115256431E-3</v>
+      </c>
+      <c r="D15">
         <v>1.622314</v>
       </c>
-      <c r="D14">
+      <c r="E15">
         <v>1.622E-3</v>
       </c>
-      <c r="E14">
+      <c r="F15" s="1">
+        <f>テーブル1[[#This Row],[電流3]]/テーブル1[[#This Row],[電圧2]]</f>
+        <v>9.9980644930636122E-4</v>
+      </c>
+      <c r="G15">
         <v>0.29296899999999998</v>
       </c>
-      <c r="F14">
+      <c r="H15">
         <v>2.9500000000000001E-4</v>
       </c>
-      <c r="G14">
+      <c r="I15">
+        <f>テーブル1[[#This Row],[電流6]]/テーブル1[[#This Row],[電圧5]]</f>
+        <v>1.0069324740842888E-3</v>
+      </c>
+      <c r="J15">
         <v>3.1738000000000002E-2</v>
       </c>
-      <c r="H14" s="1">
+      <c r="K15" s="1">
         <v>3.2141109999999997E-5</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15">
+      <c r="L15" s="1">
+        <f>テーブル1[[#This Row],[電流9]]/テーブル1[[#This Row],[電圧8]]</f>
+        <v>1.0127011783981346E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16">
         <v>3.1738279999999999</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>3.186E-3</v>
       </c>
-      <c r="C15">
+      <c r="C16">
+        <f>テーブル1[[#This Row],[電流]]/テーブル1[[#This Row],[電圧]]</f>
+        <v>1.003835116458737E-3</v>
+      </c>
+      <c r="D16">
         <v>1.746826</v>
       </c>
-      <c r="D15">
+      <c r="E16">
         <v>1.748E-3</v>
       </c>
-      <c r="E15">
+      <c r="F16" s="1">
+        <f>テーブル1[[#This Row],[電流3]]/テーブル1[[#This Row],[電圧2]]</f>
+        <v>1.0006720760968751E-3</v>
+      </c>
+      <c r="G16">
         <v>0.316162</v>
       </c>
-      <c r="F15">
+      <c r="H16">
         <v>3.1799999999999998E-4</v>
       </c>
-      <c r="G15">
+      <c r="I16">
+        <f>テーブル1[[#This Row],[電流6]]/テーブル1[[#This Row],[電圧5]]</f>
+        <v>1.0058134753702216E-3</v>
+      </c>
+      <c r="J16">
         <v>3.4180000000000002E-2</v>
       </c>
-      <c r="H15" s="1">
+      <c r="K16" s="1">
         <v>3.4619139999999998E-5</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16">
+      <c r="L16" s="1">
+        <f>テーブル1[[#This Row],[電流9]]/テーブル1[[#This Row],[電圧8]]</f>
+        <v>1.0128478642480981E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17">
         <v>3.4020990000000002</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>3.3809999999999999E-3</v>
       </c>
-      <c r="C16">
+      <c r="C17">
+        <f>テーブル1[[#This Row],[電流]]/テーブル1[[#This Row],[電圧]]</f>
+        <v>9.9379824043921102E-4</v>
+      </c>
+      <c r="D17">
         <v>1.8725579999999999</v>
       </c>
-      <c r="D16">
+      <c r="E17">
         <v>1.8699999999999999E-3</v>
       </c>
-      <c r="E16">
+      <c r="F17" s="1">
+        <f>テーブル1[[#This Row],[電流3]]/テーブル1[[#This Row],[電圧2]]</f>
+        <v>9.9863395419527734E-4</v>
+      </c>
+      <c r="G17">
         <v>0.33935500000000002</v>
       </c>
-      <c r="F16">
+      <c r="H17">
         <v>3.4099999999999999E-4</v>
       </c>
-      <c r="G16">
+      <c r="I17">
+        <f>テーブル1[[#This Row],[電流6]]/テーブル1[[#This Row],[電圧5]]</f>
+        <v>1.0048474311561638E-3</v>
+      </c>
+      <c r="J17">
         <v>3.6621000000000001E-2</v>
       </c>
-      <c r="H16" s="1">
+      <c r="K17" s="1">
         <v>3.7097159999999998E-5</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17">
+      <c r="L17" s="1">
+        <f>テーブル1[[#This Row],[電流9]]/テーブル1[[#This Row],[電圧8]]</f>
+        <v>1.0130023756860817E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18">
         <v>3.6291500000000001</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>3.6129999999999999E-3</v>
       </c>
-      <c r="C17">
+      <c r="C18">
+        <f>テーブル1[[#This Row],[電流]]/テーブル1[[#This Row],[電圧]]</f>
+        <v>9.955499221580811E-4</v>
+      </c>
+      <c r="D18">
         <v>1.9970699999999999</v>
       </c>
-      <c r="D17">
+      <c r="E18">
         <v>1.9970000000000001E-3</v>
       </c>
-      <c r="E17">
+      <c r="F18" s="1">
+        <f>テーブル1[[#This Row],[電流3]]/テーブル1[[#This Row],[電圧2]]</f>
+        <v>9.9996494864977191E-4</v>
+      </c>
+      <c r="G18">
         <v>0.36132799999999998</v>
       </c>
-      <c r="F17">
+      <c r="H18">
         <v>3.6400000000000001E-4</v>
       </c>
-      <c r="G17">
+      <c r="I18">
+        <f>テーブル1[[#This Row],[電流6]]/テーブル1[[#This Row],[電圧5]]</f>
+        <v>1.0073949430987911E-3</v>
+      </c>
+      <c r="J18">
         <v>3.9061999999999999E-2</v>
       </c>
-      <c r="H17" s="1">
+      <c r="K18" s="1">
         <v>3.95874E-5</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18">
+      <c r="L18" s="1">
+        <f>テーブル1[[#This Row],[電流9]]/テーブル1[[#This Row],[電圧8]]</f>
+        <v>1.0134504121652758E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19">
         <v>3.856201</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>3.833E-3</v>
       </c>
-      <c r="C18">
+      <c r="C19">
+        <f>テーブル1[[#This Row],[電流]]/テーブル1[[#This Row],[電圧]]</f>
+        <v>9.939834567752044E-4</v>
+      </c>
+      <c r="D19">
         <v>2.1228030000000002</v>
       </c>
-      <c r="D18">
+      <c r="E19">
         <v>2.1199999999999999E-3</v>
       </c>
-      <c r="E18">
+      <c r="F19" s="1">
+        <f>テーブル1[[#This Row],[電流3]]/テーブル1[[#This Row],[電圧2]]</f>
+        <v>9.9867957601341224E-4</v>
+      </c>
+      <c r="G19">
         <v>0.384521</v>
       </c>
-      <c r="F18">
+      <c r="H19">
         <v>3.86E-4</v>
       </c>
-      <c r="G18">
+      <c r="I19">
+        <f>テーブル1[[#This Row],[電流6]]/テーブル1[[#This Row],[電圧5]]</f>
+        <v>1.0038463438927913E-3</v>
+      </c>
+      <c r="J19">
         <v>4.1503999999999999E-2</v>
       </c>
-      <c r="H18" s="1">
+      <c r="K19" s="1">
         <v>4.2077630000000001E-5</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19">
+      <c r="L19" s="1">
+        <f>テーブル1[[#This Row],[電流9]]/テーブル1[[#This Row],[電圧8]]</f>
+        <v>1.0138210774865073E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20">
         <v>3.9257810000000002</v>
-      </c>
-      <c r="B19">
-        <v>3.9060000000000002E-3</v>
-      </c>
-      <c r="C19">
-        <v>2.2460939999999998</v>
-      </c>
-      <c r="D19">
-        <v>2.2469999999999999E-3</v>
-      </c>
-      <c r="E19">
-        <v>0.40649400000000002</v>
-      </c>
-      <c r="F19">
-        <v>4.0900000000000002E-4</v>
-      </c>
-      <c r="G19">
-        <v>4.3944999999999998E-2</v>
-      </c>
-      <c r="H19" s="1">
-        <v>4.4531250000000002E-5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20">
-        <v>3.9233389999999999</v>
       </c>
       <c r="B20">
         <v>3.9060000000000002E-3</v>
       </c>
       <c r="C20">
-        <v>2.371826</v>
+        <f>テーブル1[[#This Row],[電流]]/テーブル1[[#This Row],[電圧]]</f>
+        <v>9.9496125739056756E-4</v>
       </c>
       <c r="D20">
-        <v>2.372E-3</v>
+        <v>2.2460939999999998</v>
       </c>
       <c r="E20">
-        <v>0.42968699999999999</v>
-      </c>
-      <c r="F20">
-        <v>4.3199999999999998E-4</v>
+        <v>2.2469999999999999E-3</v>
+      </c>
+      <c r="F20" s="1">
+        <f>テーブル1[[#This Row],[電流3]]/テーブル1[[#This Row],[電圧2]]</f>
+        <v>1.0004033669116252E-3</v>
       </c>
       <c r="G20">
-        <v>4.6386999999999998E-2</v>
-      </c>
-      <c r="H20" s="1">
-        <v>4.7021480000000002E-5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0.40649400000000002</v>
+      </c>
+      <c r="H20">
+        <v>4.0900000000000002E-4</v>
+      </c>
+      <c r="I20">
+        <f>テーブル1[[#This Row],[電流6]]/テーブル1[[#This Row],[電圧5]]</f>
+        <v>1.006164912643237E-3</v>
+      </c>
+      <c r="J20">
+        <v>4.3944999999999998E-2</v>
+      </c>
+      <c r="K20" s="1">
+        <v>4.4531250000000002E-5</v>
+      </c>
+      <c r="L20" s="1">
+        <f>テーブル1[[#This Row],[電流9]]/テーブル1[[#This Row],[電圧8]]</f>
+        <v>1.0133405393105018E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
-        <v>3.9208980000000002</v>
+        <v>3.9233389999999999</v>
       </c>
       <c r="B21">
         <v>3.9060000000000002E-3</v>
       </c>
       <c r="C21">
+        <f>テーブル1[[#This Row],[電流]]/テーブル1[[#This Row],[電圧]]</f>
+        <v>9.9558055013854283E-4</v>
+      </c>
+      <c r="D21">
+        <v>2.371826</v>
+      </c>
+      <c r="E21">
+        <v>2.372E-3</v>
+      </c>
+      <c r="F21" s="1">
+        <f>テーブル1[[#This Row],[電流3]]/テーブル1[[#This Row],[電圧2]]</f>
+        <v>1.000073361199346E-3</v>
+      </c>
+      <c r="G21">
+        <v>0.42968699999999999</v>
+      </c>
+      <c r="H21">
+        <v>4.3199999999999998E-4</v>
+      </c>
+      <c r="I21">
+        <f>テーブル1[[#This Row],[電流6]]/テーブル1[[#This Row],[電圧5]]</f>
+        <v>1.0053829880820224E-3</v>
+      </c>
+      <c r="J21">
+        <v>4.6386999999999998E-2</v>
+      </c>
+      <c r="K21" s="1">
+        <v>4.7021480000000002E-5</v>
+      </c>
+      <c r="L21" s="1">
+        <f>テーブル1[[#This Row],[電流9]]/テーブル1[[#This Row],[電圧8]]</f>
+        <v>1.0136779701209392E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22">
+        <v>3.9208980000000002</v>
+      </c>
+      <c r="B22">
+        <v>3.9060000000000002E-3</v>
+      </c>
+      <c r="C22">
+        <f>テーブル1[[#This Row],[電流]]/テーブル1[[#This Row],[電圧]]</f>
+        <v>9.9620036022360185E-4</v>
+      </c>
+      <c r="D22">
         <v>2.4963380000000002</v>
       </c>
-      <c r="D21">
+      <c r="E22">
         <v>2.4949999999999998E-3</v>
       </c>
-      <c r="E21">
+      <c r="F22" s="1">
+        <f>テーブル1[[#This Row],[電流3]]/テーブル1[[#This Row],[電圧2]]</f>
+        <v>9.9946401488900933E-4</v>
+      </c>
+      <c r="G22">
         <v>0.45166000000000001</v>
       </c>
-      <c r="F21">
+      <c r="H22">
         <v>4.5399999999999998E-4</v>
       </c>
-      <c r="G21">
+      <c r="I22">
+        <f>テーブル1[[#This Row],[電流6]]/テーブル1[[#This Row],[電圧5]]</f>
+        <v>1.0051808882787937E-3</v>
+      </c>
+      <c r="J22">
         <v>4.8828000000000003E-2</v>
       </c>
-      <c r="H21" s="1">
+      <c r="K22" s="1">
         <v>4.9450680000000003E-5</v>
+      </c>
+      <c r="L22" s="1">
+        <f>テーブル1[[#This Row],[電流9]]/テーブル1[[#This Row],[電圧8]]</f>
+        <v>1.0127525190464488E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="C23" s="4">
+        <f>AVERAGE(C3:C22)</f>
+        <v>1.0056270950984097E-3</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="5">
+        <f>AVERAGE(F3:F22)</f>
+        <v>1.0003651710526371E-3</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="5">
+        <f>AVERAGE(I3:I22)</f>
+        <v>1.0074944951340924E-3</v>
+      </c>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="5">
+        <f>AVERAGE(L3:L22)</f>
+        <v>9.3242992108902062E-4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>